--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H2">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I2">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J2">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7223463706076</v>
+        <v>19.816421</v>
       </c>
       <c r="N2">
-        <v>10.7223463706076</v>
+        <v>59.449263</v>
       </c>
       <c r="O2">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="P2">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="Q2">
-        <v>9.111703994549844</v>
+        <v>25.31389911929367</v>
       </c>
       <c r="R2">
-        <v>9.111703994549844</v>
+        <v>227.825092073643</v>
       </c>
       <c r="S2">
-        <v>0.00396532262558052</v>
+        <v>0.00816342473370499</v>
       </c>
       <c r="T2">
-        <v>0.00396532262558052</v>
+        <v>0.008163424733704992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H3">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I3">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J3">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.1633203581607</v>
+        <v>18.17573333333333</v>
       </c>
       <c r="N3">
-        <v>18.1633203581607</v>
+        <v>54.5272</v>
       </c>
       <c r="O3">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294916</v>
       </c>
       <c r="P3">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294917</v>
       </c>
       <c r="Q3">
-        <v>15.4349424035966</v>
+        <v>23.21805133324445</v>
       </c>
       <c r="R3">
-        <v>15.4349424035966</v>
+        <v>208.9624619992</v>
       </c>
       <c r="S3">
-        <v>0.006717132862757964</v>
+        <v>0.007487539301196697</v>
       </c>
       <c r="T3">
-        <v>0.006717132862757964</v>
+        <v>0.007487539301196699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H4">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I4">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J4">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.52167902473928</v>
+        <v>6.429072666666666</v>
       </c>
       <c r="N4">
-        <v>5.52167902473928</v>
+        <v>19.287218</v>
       </c>
       <c r="O4">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="P4">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="Q4">
-        <v>4.692247674842458</v>
+        <v>8.212628148877556</v>
       </c>
       <c r="R4">
-        <v>4.692247674842458</v>
+        <v>73.91365333989799</v>
       </c>
       <c r="S4">
-        <v>0.002042019350168718</v>
+        <v>0.002648472739949022</v>
       </c>
       <c r="T4">
-        <v>0.002042019350168718</v>
+        <v>0.002648472739949023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H5">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I5">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J5">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.53358535330263</v>
+        <v>2.039044333333333</v>
       </c>
       <c r="N5">
-        <v>1.53358535330263</v>
+        <v>6.117133</v>
       </c>
       <c r="O5">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="P5">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="Q5">
-        <v>1.303219958271025</v>
+        <v>2.604716691968112</v>
       </c>
       <c r="R5">
-        <v>1.303219958271025</v>
+        <v>23.442450227713</v>
       </c>
       <c r="S5">
-        <v>0.0005671483171239147</v>
+        <v>0.0008399894685248326</v>
       </c>
       <c r="T5">
-        <v>0.0005671483171239147</v>
+        <v>0.0008399894685248327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H6">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I6">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J6">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7223463706076</v>
+        <v>19.816421</v>
       </c>
       <c r="N6">
-        <v>10.7223463706076</v>
+        <v>59.449263</v>
       </c>
       <c r="O6">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="P6">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="Q6">
-        <v>484.8066040358656</v>
+        <v>900.6018723196185</v>
       </c>
       <c r="R6">
-        <v>484.8066040358656</v>
+        <v>8105.416850876566</v>
       </c>
       <c r="S6">
-        <v>0.210982994746555</v>
+        <v>0.2904331555193516</v>
       </c>
       <c r="T6">
-        <v>0.210982994746555</v>
+        <v>0.2904331555193517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H7">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I7">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J7">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.1633203581607</v>
+        <v>18.17573333333333</v>
       </c>
       <c r="N7">
-        <v>18.1633203581607</v>
+        <v>54.5272</v>
       </c>
       <c r="O7">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294916</v>
       </c>
       <c r="P7">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294917</v>
       </c>
       <c r="Q7">
-        <v>821.2472677616365</v>
+        <v>826.0371270262223</v>
       </c>
       <c r="R7">
-        <v>821.2472677616365</v>
+        <v>7434.334143236</v>
       </c>
       <c r="S7">
-        <v>0.3573986132560144</v>
+        <v>0.2663869316199056</v>
       </c>
       <c r="T7">
-        <v>0.3573986132560144</v>
+        <v>0.2663869316199058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H8">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I8">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J8">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.52167902473928</v>
+        <v>6.429072666666666</v>
       </c>
       <c r="N8">
-        <v>5.52167902473928</v>
+        <v>19.287218</v>
       </c>
       <c r="O8">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="P8">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="Q8">
-        <v>249.660509373027</v>
+        <v>292.1836834652877</v>
       </c>
       <c r="R8">
-        <v>249.660509373027</v>
+        <v>2629.65315118759</v>
       </c>
       <c r="S8">
-        <v>0.1086497615729154</v>
+        <v>0.0942256859421392</v>
       </c>
       <c r="T8">
-        <v>0.1086497615729154</v>
+        <v>0.09422568594213925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H9">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I9">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J9">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.53358535330263</v>
+        <v>2.039044333333333</v>
       </c>
       <c r="N9">
-        <v>1.53358535330263</v>
+        <v>6.117133</v>
       </c>
       <c r="O9">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="P9">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="Q9">
-        <v>69.34044857680344</v>
+        <v>92.66896097649057</v>
       </c>
       <c r="R9">
-        <v>69.34044857680344</v>
+        <v>834.020648788415</v>
       </c>
       <c r="S9">
-        <v>0.03017627106564992</v>
+        <v>0.02988461337059061</v>
       </c>
       <c r="T9">
-        <v>0.03017627106564992</v>
+        <v>0.02988461337059062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H10">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I10">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J10">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.7223463706076</v>
+        <v>19.816421</v>
       </c>
       <c r="N10">
-        <v>10.7223463706076</v>
+        <v>59.449263</v>
       </c>
       <c r="O10">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="P10">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="Q10">
-        <v>4.562482994571763</v>
+        <v>9.841620719966334</v>
       </c>
       <c r="R10">
-        <v>4.562482994571763</v>
+        <v>88.574586479697</v>
       </c>
       <c r="S10">
-        <v>0.001985547056623362</v>
+        <v>0.003173803041029044</v>
       </c>
       <c r="T10">
-        <v>0.001985547056623362</v>
+        <v>0.003173803041029045</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H11">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I11">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J11">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.1633203581607</v>
+        <v>18.17573333333333</v>
       </c>
       <c r="N11">
-        <v>18.1633203581607</v>
+        <v>54.5272</v>
       </c>
       <c r="O11">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294916</v>
       </c>
       <c r="P11">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294917</v>
       </c>
       <c r="Q11">
-        <v>7.728703904420813</v>
+        <v>9.026790144088888</v>
       </c>
       <c r="R11">
-        <v>7.728703904420813</v>
+        <v>81.2411112968</v>
       </c>
       <c r="S11">
-        <v>0.003363454791435687</v>
+        <v>0.002911030085920474</v>
       </c>
       <c r="T11">
-        <v>0.003363454791435687</v>
+        <v>0.002911030085920475</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H12">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I12">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J12">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.52167902473928</v>
+        <v>6.429072666666666</v>
       </c>
       <c r="N12">
-        <v>5.52167902473928</v>
+        <v>19.287218</v>
       </c>
       <c r="O12">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="P12">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="Q12">
-        <v>2.349538597346112</v>
+        <v>3.192932506149111</v>
       </c>
       <c r="R12">
-        <v>2.349538597346112</v>
+        <v>28.736392555342</v>
       </c>
       <c r="S12">
-        <v>0.001022495744517603</v>
+        <v>0.001029681917863138</v>
       </c>
       <c r="T12">
-        <v>0.001022495744517603</v>
+        <v>0.001029681917863139</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H13">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I13">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J13">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.53358535330263</v>
+        <v>2.039044333333333</v>
       </c>
       <c r="N13">
-        <v>1.53358535330263</v>
+        <v>6.117133</v>
       </c>
       <c r="O13">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="P13">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="Q13">
-        <v>0.6525583909831374</v>
+        <v>1.012670298025222</v>
       </c>
       <c r="R13">
-        <v>0.6525583909831374</v>
+        <v>9.114032682227</v>
       </c>
       <c r="S13">
-        <v>0.0002839868979310156</v>
+        <v>0.0003265738604325358</v>
       </c>
       <c r="T13">
-        <v>0.0002839868979310156</v>
+        <v>0.0003265738604325359</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H14">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I14">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J14">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.7223463706076</v>
+        <v>19.816421</v>
       </c>
       <c r="N14">
-        <v>10.7223463706076</v>
+        <v>59.449263</v>
       </c>
       <c r="O14">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="P14">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="Q14">
-        <v>187.0415028183791</v>
+        <v>386.8475175914967</v>
       </c>
       <c r="R14">
-        <v>187.0415028183791</v>
+        <v>3481.62765832347</v>
       </c>
       <c r="S14">
-        <v>0.08139859498200731</v>
+        <v>0.124753621652535</v>
       </c>
       <c r="T14">
-        <v>0.08139859498200731</v>
+        <v>0.124753621652535</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H15">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I15">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J15">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.1633203581607</v>
+        <v>18.17573333333333</v>
       </c>
       <c r="N15">
-        <v>18.1633203581607</v>
+        <v>54.5272</v>
       </c>
       <c r="O15">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294916</v>
       </c>
       <c r="P15">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294917</v>
       </c>
       <c r="Q15">
-        <v>316.8424725836872</v>
+        <v>354.8187293964444</v>
       </c>
       <c r="R15">
-        <v>316.8424725836872</v>
+        <v>3193.368564568</v>
       </c>
       <c r="S15">
-        <v>0.1378866813531776</v>
+        <v>0.1144247268224688</v>
       </c>
       <c r="T15">
-        <v>0.1378866813531776</v>
+        <v>0.1144247268224689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H16">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I16">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J16">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.52167902473928</v>
+        <v>6.429072666666666</v>
       </c>
       <c r="N16">
-        <v>5.52167902473928</v>
+        <v>19.287218</v>
       </c>
       <c r="O16">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="P16">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="Q16">
-        <v>96.32062863582274</v>
+        <v>125.5055492369356</v>
       </c>
       <c r="R16">
-        <v>96.32062863582274</v>
+        <v>1129.54994313242</v>
       </c>
       <c r="S16">
-        <v>0.0419177761117158</v>
+        <v>0.04047401390160146</v>
       </c>
       <c r="T16">
-        <v>0.0419177761117158</v>
+        <v>0.04047401390160148</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H17">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I17">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J17">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.53358535330263</v>
+        <v>2.039044333333333</v>
       </c>
       <c r="N17">
-        <v>1.53358535330263</v>
+        <v>6.117133</v>
       </c>
       <c r="O17">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="P17">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="Q17">
-        <v>26.75199058745984</v>
+        <v>39.80533309264111</v>
       </c>
       <c r="R17">
-        <v>26.75199058745984</v>
+        <v>358.24799783377</v>
       </c>
       <c r="S17">
-        <v>0.01164219926582595</v>
+        <v>0.01283673602278696</v>
       </c>
       <c r="T17">
-        <v>0.01164219926582595</v>
+        <v>0.01283673602278696</v>
       </c>
     </row>
   </sheetData>
